--- a/source_data/simple_3.xlsx
+++ b/source_data/simple_3.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A9A4AE-D9DB-AA46-8613-AC4C377BF11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D4434-9B91-B041-9178-86ABEED41E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68320" yWindow="2520" windowWidth="33260" windowHeight="19480" firstSheet="1" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="41880" yWindow="5160" windowWidth="33260" windowHeight="19480" firstSheet="1" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId4"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId5"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId6"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId7"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId9"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId10"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId11"/>
-    <sheet name="configuration" sheetId="10" r:id="rId12"/>
+    <sheet name="studyDesignArms" sheetId="14" r:id="rId4"/>
+    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId5"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
+    <sheet name="studyDesignII" sheetId="6" r:id="rId7"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId8"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId9"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId10"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId11"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId12"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId13"/>
+    <sheet name="configuration" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -981,10 +983,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1590,6 +1592,209 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="7" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1748,7 +1953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1872,16 +2077,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2045,34 +2251,34 @@
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -2192,22 +2398,50 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA745A56-F95E-3649-B3B6-3B9F769C29CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E619C133-02CC-F44B-BABB-4566B44D57E8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -2480,7 +2714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2569,7 +2803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2661,7 +2895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -3069,207 +3303,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" style="7" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/source_data/simple_3.xlsx
+++ b/source_data/simple_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D4434-9B91-B041-9178-86ABEED41E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE12284-143B-C24F-B49A-F3DBDADA6880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41880" yWindow="5160" windowWidth="33260" windowHeight="19480" firstSheet="1" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="41880" yWindow="5160" windowWidth="33260" windowHeight="19480" firstSheet="1" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="286">
   <si>
     <t>Epoch</t>
   </si>
@@ -844,6 +844,69 @@
   </si>
   <si>
     <t>SDR Root</t>
+  </si>
+  <si>
+    <t>studyArmName</t>
+  </si>
+  <si>
+    <t>studyArmDescription</t>
+  </si>
+  <si>
+    <t>studyArmType</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginDescription</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginType</t>
+  </si>
+  <si>
+    <t>Active Substance</t>
+  </si>
+  <si>
+    <t>Active Comparator Arm</t>
+  </si>
+  <si>
+    <t>Data collected from subjects</t>
+  </si>
+  <si>
+    <t>Data Generated Within Study</t>
+  </si>
+  <si>
+    <t>Placebo Comparator Arm</t>
+  </si>
+  <si>
+    <t>studyEpochName</t>
+  </si>
+  <si>
+    <t>studyEpochDescription</t>
+  </si>
+  <si>
+    <t>studyEpochType</t>
+  </si>
+  <si>
+    <t>Screening Epoch</t>
+  </si>
+  <si>
+    <t>SCREENING</t>
+  </si>
+  <si>
+    <t>Baseline Epoch</t>
+  </si>
+  <si>
+    <t>BASELINE</t>
+  </si>
+  <si>
+    <t>Treatment Epoch</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>Follow-up Epoch</t>
+  </si>
+  <si>
+    <t>FOLLOW-UP</t>
   </si>
 </sst>
 </file>
@@ -983,10 +1046,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2214,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2251,34 +2314,34 @@
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -2398,16 +2461,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2415,28 +2478,151 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA745A56-F95E-3649-B3B6-3B9F769C29CE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E619C133-02CC-F44B-BABB-4566B44D57E8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
